--- a/xml_parser/excel_files/article_author.xlsx
+++ b/xml_parser/excel_files/article_author.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Klimov</t>
+          <t>Климов</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bogoyavlensky</t>
+          <t>Богоявленскы</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kishankov</t>
+          <t>Кишанков</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kazanin</t>
+          <t>Казанин</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kazanin</t>
+          <t>Казанин</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rodkin</t>
+          <t>Родкин</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bogoyavlensky</t>
+          <t>Богоявленскы</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bogoyavlensky</t>
+          <t>Богоявленскы</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Nikonov</t>
+          <t>Никонов</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sizov</t>
+          <t>Сизов</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Kishankov</t>
+          <t>Кишанков</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Kargina</t>
+          <t>Каргина</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Kishankov</t>
+          <t>Кишанков</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Serov</t>
+          <t>Серов</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bünz</t>
+          <t>Бунз</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Patton</t>
+          <t>Паттон</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Hubbard</t>
+          <t>Хуббард</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Vadakkepuliyambatta</t>
+          <t>Вадаккепулиямбатта</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Andreassen</t>
+          <t>Андреассен</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mattingsdal</t>
+          <t>Маттингсдал</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Skibitskaya</t>
+          <t>Скибицкая</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Kuzmin</t>
+          <t>Кузмин</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Kuklina</t>
+          <t>Куклина</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Rasputina</t>
+          <t>Распутина</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Bilichenko</t>
+          <t>Биличенко</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Krasnoshtanova</t>
+          <t>Красноштанова</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Bogdanov</t>
+          <t>Богданов</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sizov</t>
+          <t>Сизов</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Petrov</t>
+          <t>Петров</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Safonov</t>
+          <t>Сафонов</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Rodygina</t>
+          <t>Родыгина</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Zakharova</t>
+          <t>Закхарова</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Lavrinovich</t>
+          <t>Лавринович</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Emel'yanov</t>
+          <t>Емельянов</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Novikov</t>
+          <t>Новиков</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Boldyrev</t>
+          <t>Болдырев</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Kuryakov</t>
+          <t>Куряков</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Chigarev</t>
+          <t>Чигарев</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2922,7 @@
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Pikina</t>
+          <t>Пикина</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Kats</t>
+          <t>Кац</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Lebedev</t>
+          <t>Лебедев</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Muratov</t>
+          <t>Муратов</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Kuryakov</t>
+          <t>Куряков</t>
         </is>
       </c>
     </row>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Klimov</t>
+          <t>Климов</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Zakirov</t>
+          <t>Закиров</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Chigarev</t>
+          <t>Чигарев</t>
         </is>
       </c>
     </row>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Popov</t>
+          <t>Попов</t>
         </is>
       </c>
     </row>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Chernyshov</t>
+          <t>Чернышов</t>
         </is>
       </c>
     </row>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Gladkikh</t>
+          <t>Гладкикх</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Zimina</t>
+          <t>Зимина</t>
         </is>
       </c>
     </row>
@@ -6626,7 +6626,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Sizov</t>
+          <t>Сизов</t>
         </is>
       </c>
     </row>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Tsymbarovich</t>
+          <t>Цымбарович</t>
         </is>
       </c>
     </row>
@@ -11534,7 +11534,7 @@
       <c r="C583" t="inlineStr"/>
       <c r="D583" t="inlineStr">
         <is>
-          <t>Kuzmin</t>
+          <t>Кузмин</t>
         </is>
       </c>
     </row>
@@ -11550,7 +11550,7 @@
       <c r="C584" t="inlineStr"/>
       <c r="D584" t="inlineStr">
         <is>
-          <t>Skibitskaya</t>
+          <t>Скибицкая</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       <c r="C587" t="inlineStr"/>
       <c r="D587" t="inlineStr">
         <is>
-          <t>Kuklina</t>
+          <t>Куклина</t>
         </is>
       </c>
     </row>
@@ -11626,7 +11626,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>Sizov</t>
+          <t>Сизов</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>Fedorov</t>
+          <t>Федоров</t>
         </is>
       </c>
     </row>
@@ -11662,7 +11662,7 @@
       <c r="C590" t="inlineStr"/>
       <c r="D590" t="inlineStr">
         <is>
-          <t>Butakov</t>
+          <t>Бутаков</t>
         </is>
       </c>
     </row>
